--- a/docs/Zeitplanung.xlsx
+++ b/docs/Zeitplanung.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0408A8FE-C04B-254F-9DD6-EB1C0644EA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB08678-064A-2444-B4CF-08B5C1197947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C5" s="105">
         <f ca="1">IFERROR(IF(MIN(Meilensteine34[Start])=0,TODAY(),MIN(Meilensteine34[Start])),TODAY())</f>
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="E5" s="63"/>
       <c r="H5" s="33"/>
@@ -2488,227 +2488,227 @@
       <c r="B7" s="22"/>
       <c r="H7" s="95">
         <f ca="1">IFERROR(Projekt_Start+Scroll_Schrittweite,TODAY())</f>
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="I7" s="96">
         <f ca="1">H7+1</f>
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="J7" s="96">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>45297</v>
+        <v>45300</v>
       </c>
       <c r="K7" s="96">
         <f ca="1">J7+1</f>
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="L7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="M7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="N7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45301</v>
+        <v>45304</v>
       </c>
       <c r="O7" s="96">
         <f ca="1">N7+1</f>
-        <v>45302</v>
+        <v>45305</v>
       </c>
       <c r="P7" s="96">
         <f ca="1">O7+1</f>
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="Q7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45304</v>
+        <v>45307</v>
       </c>
       <c r="R7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45305</v>
+        <v>45308</v>
       </c>
       <c r="S7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45306</v>
+        <v>45309</v>
       </c>
       <c r="T7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="U7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45308</v>
+        <v>45311</v>
       </c>
       <c r="V7" s="96">
         <f ca="1">U7+1</f>
-        <v>45309</v>
+        <v>45312</v>
       </c>
       <c r="W7" s="96">
         <f ca="1">V7+1</f>
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="X7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45311</v>
+        <v>45314</v>
       </c>
       <c r="Y7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45312</v>
+        <v>45315</v>
       </c>
       <c r="Z7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="AA7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="AB7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45315</v>
+        <v>45318</v>
       </c>
       <c r="AC7" s="96">
         <f ca="1">AB7+1</f>
-        <v>45316</v>
+        <v>45319</v>
       </c>
       <c r="AD7" s="96">
         <f ca="1">AC7+1</f>
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="AE7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45318</v>
+        <v>45321</v>
       </c>
       <c r="AF7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45319</v>
+        <v>45322</v>
       </c>
       <c r="AG7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="AH7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45321</v>
+        <v>45324</v>
       </c>
       <c r="AI7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="AJ7" s="96">
         <f ca="1">AI7+1</f>
-        <v>45323</v>
+        <v>45326</v>
       </c>
       <c r="AK7" s="96">
         <f ca="1">AJ7+1</f>
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="AL7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="AM7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45326</v>
+        <v>45329</v>
       </c>
       <c r="AN7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="AO7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45328</v>
+        <v>45331</v>
       </c>
       <c r="AP7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="AQ7" s="96">
         <f ca="1">AP7+1</f>
-        <v>45330</v>
+        <v>45333</v>
       </c>
       <c r="AR7" s="96">
         <f ca="1">AQ7+1</f>
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="AS7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="AT7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45333</v>
+        <v>45336</v>
       </c>
       <c r="AU7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="AV7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45335</v>
+        <v>45338</v>
       </c>
       <c r="AW7" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>45336</v>
+        <v>45339</v>
       </c>
       <c r="AX7" s="96">
         <f ca="1">AW7+1</f>
-        <v>45337</v>
+        <v>45340</v>
       </c>
       <c r="AY7" s="96">
         <f ca="1">AX7+1</f>
-        <v>45338</v>
+        <v>45341</v>
       </c>
       <c r="AZ7" s="96">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>45339</v>
+        <v>45342</v>
       </c>
       <c r="BA7" s="96">
         <f t="shared" ca="1" si="1"/>
-        <v>45340</v>
+        <v>45343</v>
       </c>
       <c r="BB7" s="96">
         <f t="shared" ca="1" si="1"/>
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="BC7" s="96">
         <f t="shared" ca="1" si="1"/>
-        <v>45342</v>
+        <v>45345</v>
       </c>
       <c r="BD7" s="96">
         <f t="shared" ca="1" si="1"/>
-        <v>45343</v>
+        <v>45346</v>
       </c>
       <c r="BE7" s="96">
         <f ca="1">BD7+1</f>
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="BF7" s="96">
         <f ca="1">BE7+1</f>
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="BG7" s="96">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>45346</v>
+        <v>45349</v>
       </c>
       <c r="BH7" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="BI7" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="BJ7" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="BK7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45350</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="8" spans="1:63" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,227 +2731,227 @@
       <c r="G8" s="101"/>
       <c r="H8" s="92" t="str">
         <f t="shared" ref="H8:AM8" ca="1" si="3">LEFT(TEXT(H7,"TTT"),1)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="I8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="J8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="K8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="L8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="M8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="N8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="O8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="P8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="Q8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="R8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="S8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="T8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="U8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="V8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="W8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="X8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="Y8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="Z8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AA8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AB8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AC8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AD8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AE8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AF8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AG8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AH8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AI8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AJ8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AK8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AL8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AM8" s="93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AN8" s="93" t="str">
         <f t="shared" ref="AN8:BK8" ca="1" si="4">LEFT(TEXT(AN7,"TTT"),1)</f>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AO8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AP8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AQ8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AR8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AS8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AT8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AU8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AV8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AW8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AX8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AY8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AZ8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BA8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BB8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="BC8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="BD8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BE8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BF8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BG8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BH8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BI8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="BJ8" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="BK8" s="94" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
     </row>
     <row r="9" spans="1:63" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="E11" s="104">
         <f ca="1">TODAY()</f>
-        <v>45285</v>
+        <v>45288</v>
       </c>
       <c r="F11" s="15">
         <v>3</v>
@@ -3503,7 +3503,7 @@
       <c r="D12" s="91"/>
       <c r="E12" s="104">
         <f ca="1">TODAY()+5</f>
-        <v>45290</v>
+        <v>45293</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="E13" s="104">
         <f ca="1">TODAY()-3</f>
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="F13" s="15">
         <v>10</v>
@@ -3985,7 +3985,7 @@
       <c r="D14" s="91"/>
       <c r="E14" s="104">
         <f ca="1">TODAY()+20</f>
-        <v>45305</v>
+        <v>45308</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="E15" s="104">
         <f ca="1">TODAY()+6</f>
-        <v>45291</v>
+        <v>45294</v>
       </c>
       <c r="F15" s="15">
         <v>6</v>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="E17" s="104">
         <f ca="1">TODAY()+6</f>
-        <v>45291</v>
+        <v>45294</v>
       </c>
       <c r="F17" s="15">
         <v>13</v>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="E18" s="104">
         <f ca="1">TODAY()+7</f>
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="F18" s="15">
         <v>9</v>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="E19" s="104">
         <f ca="1">TODAY()+15</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="F19" s="15">
         <v>11</v>
@@ -5428,7 +5428,7 @@
       <c r="D20" s="91"/>
       <c r="E20" s="104">
         <f ca="1">TODAY()+24</f>
-        <v>45309</v>
+        <v>45312</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
@@ -5668,7 +5668,7 @@
       <c r="D21" s="91"/>
       <c r="E21" s="104">
         <f ca="1">TODAY()+25</f>
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="F21" s="15">
         <v>24</v>
@@ -6143,7 +6143,7 @@
       <c r="D23" s="91"/>
       <c r="E23" s="104">
         <f ca="1">TODAY()+15</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="F23" s="15">
         <v>4</v>
@@ -6383,7 +6383,7 @@
       <c r="D24" s="91"/>
       <c r="E24" s="104">
         <f ca="1">TODAY()+19</f>
-        <v>45304</v>
+        <v>45307</v>
       </c>
       <c r="F24" s="15">
         <v>14</v>
@@ -6623,7 +6623,7 @@
       <c r="D25" s="91"/>
       <c r="E25" s="104">
         <f ca="1">TODAY()+35</f>
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="F25" s="15">
         <v>6</v>
@@ -6863,7 +6863,7 @@
       <c r="D26" s="91"/>
       <c r="E26" s="104">
         <f ca="1">TODAY()+48</f>
-        <v>45333</v>
+        <v>45336</v>
       </c>
       <c r="F26" s="15">
         <v>3</v>
@@ -7103,7 +7103,7 @@
       <c r="D27" s="91"/>
       <c r="E27" s="104">
         <f ca="1">TODAY()+40</f>
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="F27" s="15">
         <v>19</v>
@@ -7578,7 +7578,7 @@
       <c r="D29" s="91"/>
       <c r="E29" s="104">
         <f ca="1">TODAY()+37</f>
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="F29" s="15">
         <v>15</v>
@@ -7818,7 +7818,7 @@
       <c r="D30" s="91"/>
       <c r="E30" s="104">
         <f ca="1">TODAY()+29</f>
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="F30" s="15">
         <v>5</v>
@@ -8058,7 +8058,7 @@
       <c r="D31" s="91"/>
       <c r="E31" s="104">
         <f ca="1">TODAY()+80</f>
-        <v>45365</v>
+        <v>45368</v>
       </c>
       <c r="F31" s="15">
         <v>5</v>
@@ -9182,8 +9182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768F3C01-EF89-4F23-8860-2A2D2A5DA744}">
   <dimension ref="A1:BS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -13290,7 +13290,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="104">
         <v>45290</v>
@@ -13518,7 +13518,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="104">
         <v>45294</v>
@@ -13746,7 +13746,7 @@
         <v>65</v>
       </c>
       <c r="C31" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="104">
         <v>45298</v>
@@ -13974,7 +13974,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="104">
         <v>45300</v>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="C5" s="105">
         <f ca="1">IFERROR(IF(MIN(Meilensteine[Start])=0,TODAY(),MIN(Meilensteine[Start])),TODAY())</f>
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="E5" s="63"/>
       <c r="H5" s="39"/>
@@ -14994,227 +14994,227 @@
       <c r="B7" s="22"/>
       <c r="H7" s="54">
         <f ca="1">IFERROR(Projekt_Start+Scroll_Schrittweite,TODAY())</f>
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="I7" s="56">
         <f ca="1">H7+1</f>
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="J7" s="56">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>45297</v>
+        <v>45300</v>
       </c>
       <c r="K7" s="56">
         <f ca="1">J7+1</f>
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="L7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="M7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="N7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45301</v>
+        <v>45304</v>
       </c>
       <c r="O7" s="56">
         <f ca="1">N7+1</f>
-        <v>45302</v>
+        <v>45305</v>
       </c>
       <c r="P7" s="56">
         <f ca="1">O7+1</f>
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="Q7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45304</v>
+        <v>45307</v>
       </c>
       <c r="R7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45305</v>
+        <v>45308</v>
       </c>
       <c r="S7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45306</v>
+        <v>45309</v>
       </c>
       <c r="T7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="U7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45308</v>
+        <v>45311</v>
       </c>
       <c r="V7" s="56">
         <f ca="1">U7+1</f>
-        <v>45309</v>
+        <v>45312</v>
       </c>
       <c r="W7" s="56">
         <f ca="1">V7+1</f>
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="X7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45311</v>
+        <v>45314</v>
       </c>
       <c r="Y7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45312</v>
+        <v>45315</v>
       </c>
       <c r="Z7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="AA7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="AB7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45315</v>
+        <v>45318</v>
       </c>
       <c r="AC7" s="56">
         <f ca="1">AB7+1</f>
-        <v>45316</v>
+        <v>45319</v>
       </c>
       <c r="AD7" s="56">
         <f ca="1">AC7+1</f>
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="AE7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45318</v>
+        <v>45321</v>
       </c>
       <c r="AF7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45319</v>
+        <v>45322</v>
       </c>
       <c r="AG7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="AH7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45321</v>
+        <v>45324</v>
       </c>
       <c r="AI7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="AJ7" s="56">
         <f ca="1">AI7+1</f>
-        <v>45323</v>
+        <v>45326</v>
       </c>
       <c r="AK7" s="56">
         <f ca="1">AJ7+1</f>
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="AL7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="AM7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45326</v>
+        <v>45329</v>
       </c>
       <c r="AN7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="AO7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45328</v>
+        <v>45331</v>
       </c>
       <c r="AP7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="AQ7" s="56">
         <f ca="1">AP7+1</f>
-        <v>45330</v>
+        <v>45333</v>
       </c>
       <c r="AR7" s="56">
         <f ca="1">AQ7+1</f>
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="AS7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="AT7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45333</v>
+        <v>45336</v>
       </c>
       <c r="AU7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="AV7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45335</v>
+        <v>45338</v>
       </c>
       <c r="AW7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45336</v>
+        <v>45339</v>
       </c>
       <c r="AX7" s="56">
         <f ca="1">AW7+1</f>
-        <v>45337</v>
+        <v>45340</v>
       </c>
       <c r="AY7" s="56">
         <f ca="1">AX7+1</f>
-        <v>45338</v>
+        <v>45341</v>
       </c>
       <c r="AZ7" s="56">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>45339</v>
+        <v>45342</v>
       </c>
       <c r="BA7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45340</v>
+        <v>45343</v>
       </c>
       <c r="BB7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="BC7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45342</v>
+        <v>45345</v>
       </c>
       <c r="BD7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45343</v>
+        <v>45346</v>
       </c>
       <c r="BE7" s="56">
         <f ca="1">BD7+1</f>
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="BF7" s="56">
         <f ca="1">BE7+1</f>
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="BG7" s="56">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>45346</v>
+        <v>45349</v>
       </c>
       <c r="BH7" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="BI7" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="BJ7" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="BK7" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>45350</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="8" spans="1:63" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15237,227 +15237,227 @@
       <c r="G8" s="59"/>
       <c r="H8" s="58" t="str">
         <f t="shared" ref="H8:AM8" ca="1" si="3">LEFT(TEXT(H7,"TTT"),1)</f>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="I8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="J8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="L8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="M8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="N8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="O8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="P8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="Q8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="R8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="S8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="T8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="U8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="V8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="W8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="X8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="Y8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="Z8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AA8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AB8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AC8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AD8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AE8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AF8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AG8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AH8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AI8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AJ8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AK8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AL8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AM8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AN8" s="57" t="str">
         <f t="shared" ref="AN8:BK8" ca="1" si="4">LEFT(TEXT(AN7,"TTT"),1)</f>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AO8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AP8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AQ8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AR8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AS8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AT8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AU8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AV8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AW8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AX8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AY8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AZ8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BA8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BB8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="BC8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="BD8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BE8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BF8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BG8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BH8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BI8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="BJ8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="BK8" s="55" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
     </row>
     <row r="9" spans="1:63" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="E11" s="104">
         <f ca="1">TODAY()</f>
-        <v>45285</v>
+        <v>45288</v>
       </c>
       <c r="F11" s="15">
         <v>3</v>
@@ -16009,7 +16009,7 @@
       <c r="D12" s="45"/>
       <c r="E12" s="104">
         <f ca="1">TODAY()+5</f>
-        <v>45290</v>
+        <v>45293</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="E13" s="104">
         <f ca="1">TODAY()-3</f>
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="F13" s="15">
         <v>10</v>
@@ -16491,7 +16491,7 @@
       <c r="D14" s="45"/>
       <c r="E14" s="104">
         <f ca="1">TODAY()+20</f>
-        <v>45305</v>
+        <v>45308</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
@@ -16733,7 +16733,7 @@
       </c>
       <c r="E15" s="104">
         <f ca="1">TODAY()+6</f>
-        <v>45291</v>
+        <v>45294</v>
       </c>
       <c r="F15" s="15">
         <v>6</v>
@@ -17210,7 +17210,7 @@
       </c>
       <c r="E17" s="104">
         <f ca="1">TODAY()+6</f>
-        <v>45291</v>
+        <v>45294</v>
       </c>
       <c r="F17" s="15">
         <v>13</v>
@@ -17452,7 +17452,7 @@
       </c>
       <c r="E18" s="104">
         <f ca="1">TODAY()+7</f>
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="F18" s="15">
         <v>9</v>
@@ -17694,7 +17694,7 @@
       </c>
       <c r="E19" s="104">
         <f ca="1">TODAY()+15</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="F19" s="15">
         <v>11</v>
@@ -17934,7 +17934,7 @@
       <c r="D20" s="45"/>
       <c r="E20" s="104">
         <f ca="1">TODAY()+24</f>
-        <v>45309</v>
+        <v>45312</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
@@ -18174,7 +18174,7 @@
       <c r="D21" s="45"/>
       <c r="E21" s="104">
         <f ca="1">TODAY()+25</f>
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="F21" s="15">
         <v>24</v>
@@ -18649,7 +18649,7 @@
       <c r="D23" s="45"/>
       <c r="E23" s="104">
         <f ca="1">TODAY()+15</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="F23" s="15">
         <v>4</v>
@@ -18889,7 +18889,7 @@
       <c r="D24" s="45"/>
       <c r="E24" s="104">
         <f ca="1">TODAY()+19</f>
-        <v>45304</v>
+        <v>45307</v>
       </c>
       <c r="F24" s="15">
         <v>14</v>
@@ -19129,7 +19129,7 @@
       <c r="D25" s="45"/>
       <c r="E25" s="104">
         <f ca="1">TODAY()+35</f>
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="F25" s="15">
         <v>6</v>
@@ -19369,7 +19369,7 @@
       <c r="D26" s="45"/>
       <c r="E26" s="104">
         <f ca="1">TODAY()+48</f>
-        <v>45333</v>
+        <v>45336</v>
       </c>
       <c r="F26" s="15">
         <v>3</v>
@@ -19609,7 +19609,7 @@
       <c r="D27" s="45"/>
       <c r="E27" s="104">
         <f ca="1">TODAY()+40</f>
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="F27" s="15">
         <v>19</v>
@@ -20084,7 +20084,7 @@
       <c r="D29" s="45"/>
       <c r="E29" s="104">
         <f ca="1">TODAY()+37</f>
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="F29" s="15">
         <v>15</v>
@@ -20324,7 +20324,7 @@
       <c r="D30" s="45"/>
       <c r="E30" s="104">
         <f ca="1">TODAY()+29</f>
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="F30" s="15">
         <v>5</v>
@@ -20564,7 +20564,7 @@
       <c r="D31" s="45"/>
       <c r="E31" s="104">
         <f ca="1">TODAY()+80</f>
-        <v>45365</v>
+        <v>45368</v>
       </c>
       <c r="F31" s="15">
         <v>5</v>
@@ -21685,35 +21685,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22013,27 +21984,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72214B61-5049-4980-A646-5954FFE9EB71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B0F2ED-3690-4B58-8A58-9F445988C35C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5154FCDF-22C4-473E-9895-3F25869315A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22054,6 +22034,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B0F2ED-3690-4B58-8A58-9F445988C35C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72214B61-5049-4980-A646-5954FFE9EB71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>